--- a/data/pravno/zakoni/Kazneni-zakon.pdf.hwaifs/tables/py/gmft/df.tables-11.xlsx
+++ b/data/pravno/zakoni/Kazneni-zakon.pdf.hwaifs/tables/py/gmft/df.tables-11.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>odgovorne osobe i prijavio djelo prije njegova otkrivanja ili prije saznanja da je djelo otkriveno, može se osloboditi kazne. Zlouporaba u postupku javne nabave</t>
+          <t>odgovorne osobe i prijavio djelo prije njegova otkrivanja ili prije saznanja da je djelo otkriveno, može se osloboditi kazne. javne nabave</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -572,7 +572,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Članak 254.</t>
+          <t>Zlouporaba u postupku Članak 254.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
